--- a/medicine/Psychotrope/Michel_Bettane/Michel_Bettane.xlsx
+++ b/medicine/Psychotrope/Michel_Bettane/Michel_Bettane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Bettane, né le 14 mars 1952 à Bethesda (États-Unis), est un critique de vin français. Il est coauteur du Guide Bettane et Desseauve des vins de France.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Bettane nait en 1952 dans le Maryland, pour arriver en France à l'âge de six ans lorsque son père quitte l'ambassade de France à Washington[1].
-Il étudie la musique classique pendant cinq années[2], puis se lance dans des études de lettres en classes préparatoires au lycée Louis-le-Grand, et obtient l'agrégation de lettres classiques en 1975, à 23 ans[1],[3]. Il enseigne de 1975 à 1991[2].
-À partir de 1982, il collabore à La Revue du vin de France. Il cesse sa participation en 2004, lorsque le groupe Lagardère prend le contrôle du titre[4].
-Avec Thierry Desseauve, qu'il avait rencontré aux Hospices de Beaune[1], il publie différents guides, dont Le Guide Bettane et Desseauve des vins de France, qui acquiert une réputation mondiale[5].
-C'est à lui qu'on doit l'expression « vin de garage » pour désigner les micro-cuvées à faible rendement élaborées de façon confidentielle et vendues à des prix très élevés, qui ont connu leur heure de gloire dans les années 1990-2000, notamment avec le Château Valandraud de Jean-Luc Thuvenin[6]. Ce point est discuté par certains qui attribuent la première utilisation de l'expression à Florence Cathiard (Château Smith Haut-Laffitte).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Bettane nait en 1952 dans le Maryland, pour arriver en France à l'âge de six ans lorsque son père quitte l'ambassade de France à Washington.
+Il étudie la musique classique pendant cinq années, puis se lance dans des études de lettres en classes préparatoires au lycée Louis-le-Grand, et obtient l'agrégation de lettres classiques en 1975, à 23 ans,. Il enseigne de 1975 à 1991.
+À partir de 1982, il collabore à La Revue du vin de France. Il cesse sa participation en 2004, lorsque le groupe Lagardère prend le contrôle du titre.
+Avec Thierry Desseauve, qu'il avait rencontré aux Hospices de Beaune, il publie différents guides, dont Le Guide Bettane et Desseauve des vins de France, qui acquiert une réputation mondiale.
+C'est à lui qu'on doit l'expression « vin de garage » pour désigner les micro-cuvées à faible rendement élaborées de façon confidentielle et vendues à des prix très élevés, qui ont connu leur heure de gloire dans les années 1990-2000, notamment avec le Château Valandraud de Jean-Luc Thuvenin. Ce point est discuté par certains qui attribuent la première utilisation de l'expression à Florence Cathiard (Château Smith Haut-Laffitte).
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En collaboration avec Thierry Desseauve
-1998, Le Classement 1998 des vins et domaines de France, Flammarion,  (ISBN 2-08-200639-5)
+          <t>En collaboration avec Thierry Desseauve</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1998, Le Classement 1998 des vins et domaines de France, Flammarion,  (ISBN 2-08-200639-5)
 2001, Guide du vin, J'ai lu,  (ISBN 2-290-31584-2)
 2006, Les plus grands vins du monde, Minerva
 2008, Bien acheter ses vins, Éditions du Toucan,  (ISBN 2-8100-0111-1)
